--- a/datosseguros.xlsx
+++ b/datosseguros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angeldvvp\Desktop\prueba_chubb_AngelVergaraParedes_Viamatica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8377CECC-1002-45E7-AC2F-067EF2F867BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D53152-5BD6-4E62-A287-74415DE195E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>CEDULA</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t>0948746599</t>
+  </si>
+  <si>
+    <t>CODSEGURO</t>
+  </si>
+  <si>
+    <t>ADPR321000</t>
+  </si>
+  <si>
+    <t>SVPL543000</t>
+  </si>
+  <si>
+    <t>SGRC765000</t>
+  </si>
+  <si>
+    <t>GMYS432000,ADPR321000</t>
+  </si>
+  <si>
+    <t>ADPR321000,GMYS432000</t>
   </si>
 </sst>
 </file>
@@ -153,10 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,9 +499,10 @@
     <col min="2" max="2" width="32.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,8 +515,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -511,8 +532,11 @@
       <c r="D2">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -525,8 +549,11 @@
       <c r="D3">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -539,8 +566,11 @@
       <c r="D4">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -553,12 +583,15 @@
       <c r="D5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -568,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -581,8 +614,11 @@
       <c r="D7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -595,8 +631,11 @@
       <c r="D8">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -610,7 +649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -622,6 +661,9 @@
       </c>
       <c r="D10">
         <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/datosseguros.xlsx
+++ b/datosseguros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angeldvvp\Desktop\prueba_chubb_AngelVergaraParedes_Viamatica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7750ac9e68e6bcb0/Documentos/PruebaChubbSegurosADVP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D53152-5BD6-4E62-A287-74415DE195E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{D5D53152-5BD6-4E62-A287-74415DE195E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{687B092A-48C7-4AB5-872A-0D30D61795C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>CEDULA</t>
   </si>
@@ -39,103 +39,106 @@
     <t>EDAD</t>
   </si>
   <si>
-    <t>0954815245</t>
-  </si>
-  <si>
-    <t>0984584584</t>
-  </si>
-  <si>
-    <t>0948755144</t>
-  </si>
-  <si>
-    <t>0998477515</t>
-  </si>
-  <si>
-    <t>0648458455</t>
-  </si>
-  <si>
     <t>0977845888</t>
   </si>
   <si>
-    <t>Angel David Vergara Paredes</t>
-  </si>
-  <si>
-    <t>Ana María González López</t>
-  </si>
-  <si>
-    <t>Valentina Rodríguez Ruiz</t>
-  </si>
-  <si>
-    <t>Lucía Fernández Torres</t>
-  </si>
-  <si>
-    <t>Elena Martínez Castillo</t>
-  </si>
-  <si>
-    <t>Isabella Ramírez Vargas</t>
-  </si>
-  <si>
-    <t>Camila Sánchez Ortiz</t>
-  </si>
-  <si>
-    <t>Mariana Flores Morales</t>
-  </si>
-  <si>
-    <t>0948485845</t>
-  </si>
-  <si>
-    <t>0948562488</t>
-  </si>
-  <si>
-    <t>0948625466</t>
-  </si>
-  <si>
-    <t>0948648566</t>
-  </si>
-  <si>
-    <t>0965485485</t>
-  </si>
-  <si>
-    <t>0948946266</t>
-  </si>
-  <si>
-    <t>0948936488</t>
-  </si>
-  <si>
-    <t>0948659496</t>
-  </si>
-  <si>
-    <t>0946336499</t>
-  </si>
-  <si>
-    <t>0946663498</t>
-  </si>
-  <si>
-    <t>Daniela Castro Romero</t>
-  </si>
-  <si>
-    <t>0948458485</t>
-  </si>
-  <si>
-    <t>0948746599</t>
-  </si>
-  <si>
     <t>CODSEGURO</t>
   </si>
   <si>
+    <t>SVPL543000,Gmys432000</t>
+  </si>
+  <si>
+    <t>0961548488</t>
+  </si>
+  <si>
+    <t>0954872314</t>
+  </si>
+  <si>
+    <t>Carlos Jiménez</t>
+  </si>
+  <si>
+    <t>0987541123</t>
+  </si>
+  <si>
+    <t>María Torres</t>
+  </si>
+  <si>
+    <t>0923654789</t>
+  </si>
+  <si>
+    <t>Juan Cedeño</t>
+  </si>
+  <si>
+    <t>0987123654</t>
+  </si>
+  <si>
+    <t>HOGR554200</t>
+  </si>
+  <si>
+    <t>0932145789</t>
+  </si>
+  <si>
+    <t>Andrea Villalba</t>
+  </si>
+  <si>
+    <t>0978456321</t>
+  </si>
+  <si>
+    <t>0945873214</t>
+  </si>
+  <si>
+    <t>Pedro Suárez</t>
+  </si>
+  <si>
+    <t>0989658745</t>
+  </si>
+  <si>
+    <t>SVPL543000</t>
+  </si>
+  <si>
+    <t>0956321478</t>
+  </si>
+  <si>
+    <t>Sofía Carrillo</t>
+  </si>
+  <si>
+    <t>0997412586</t>
+  </si>
+  <si>
+    <t>Luis Herrera</t>
+  </si>
+  <si>
+    <t>Daniela Morán</t>
+  </si>
+  <si>
+    <t>Diego Montalvo</t>
+  </si>
+  <si>
+    <t>ElenaParedes</t>
+  </si>
+  <si>
     <t>ADPR321000</t>
   </si>
   <si>
-    <t>SVPL543000</t>
+    <t>SRVJ987000</t>
   </si>
   <si>
     <t>SGRC765000</t>
   </si>
   <si>
-    <t>GMYS432000,ADPR321000</t>
-  </si>
-  <si>
-    <t>ADPR321000,GMYS432000</t>
+    <t>SGRC765000,ADPR321000</t>
+  </si>
+  <si>
+    <t>0912457896</t>
+  </si>
+  <si>
+    <t>0968745213</t>
+  </si>
+  <si>
+    <t>0974512368</t>
+  </si>
+  <si>
+    <t>0987456231</t>
   </si>
 </sst>
 </file>
@@ -191,10 +194,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +239,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -338,7 +345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -480,7 +487,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -488,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,154 +523,177 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>996312457</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D6">
-        <v>5</v>
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
         <v>23</v>
       </c>
-      <c r="D8">
-        <v>25</v>
-      </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>984561237</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="1">
+        <v>998564123</v>
+      </c>
+      <c r="D10">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
+      <c r="C11" s="1">
+        <v>974123658</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
